--- a/assets/disciplinas/LOM3098.xlsx
+++ b/assets/disciplinas/LOM3098.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="36">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,7 +70,7 @@
     <t>Objetivos:</t>
   </si>
   <si>
-    <t>Propiciar conhecimentos teóricos e práticos de materiais e ferramentas abrasivas, incluindo as matérias primas, os processos de fabricação, qualificação, teste e aplicação de ferramentas abrasivas; e os mecanismos de abrasão atuantes durante os processos de usinagem. Aprimorar a formação do Engenheiro de Materiais numa área estratégica de Ciência e Engenharia de Materiais presente em diversos segmentos da indústria de transformação do país</t>
+    <t>519033 - Carlos Yujiro Shigue</t>
   </si>
   <si>
     <t>Objectives:</t>
@@ -79,55 +79,43 @@
     <t>Docentes responsáveis:</t>
   </si>
   <si>
-    <t>519033 - Carlos Yujiro Shigue</t>
+    <t>Programa resumido:</t>
+  </si>
+  <si>
+    <t>Short syllabus:</t>
+  </si>
+  <si>
+    <t>Programa:</t>
+  </si>
+  <si>
+    <t>Syllabus:</t>
+  </si>
+  <si>
+    <t>Avaliação:</t>
+  </si>
+  <si>
+    <t>Método:</t>
   </si>
   <si>
     <t>5817692 - Katia Cristiane Gandolpho Candioto</t>
   </si>
   <si>
-    <t>Programa resumido:</t>
-  </si>
-  <si>
-    <t>Introdução aos materiais e ferramentas abrasivas. Matérias primas utilizadas na fabricação de ferramentas abrasivas. Processos de fabricação de ferramentas abrasivas. Caracterização, teste e inspeção de ferramentas abrasivas. Mecânica da usinagem com ferramentas abrasivas. Avaliação de desempenho. Prática laboratorial de fabricação, caracterização e teste de compósitos abrasivos.</t>
-  </si>
-  <si>
-    <t>Short syllabus:</t>
-  </si>
-  <si>
-    <t>Programa:</t>
-  </si>
-  <si>
-    <t>Conteúdo teórico: 1. Introdução aos materiais e ferramentas abrasivas: histórico, materiais abrasivos naturais e sintéticos e características principais dos materiais abrasivos. Dados econômicos das ferramentas abrasivas.2. Matérias primas utilizadas na fabricação de ferramentas abrasivas: cerâmicas, borrachas, metais e polímeros. Processos de obtenção das matérias primas.3. Processos de fabricação de ferramentas abrasivas: discos, rebolos, pontas montadas e lixas.4. Caracterização, teste e inspeção de ferramentas abrasivas: ensaios destrutivos e não destrutivos. Normas e códigos de segurança. 5. Mecânica da usinagem com ferramentas abrasivas. Operações com abrasivos: corte, retificação, desbaste, acabamento, lapidação e afiação.6. Avaliação de desempenho: aspectos térmicos, refrigeração, lubrificação, rugosidade superficial, interação metal-ferramenta e defeitos em ferramentas abrasivas.Conteúdo prático: 1. Prática laboratorial de fabricação, caracterização e teste de compósitos abrasivos.2. Visita a fabricantes de abrasivos. 3. Visita a usuários de ferramentas abrasivas.</t>
-  </si>
-  <si>
-    <t>Syllabus:</t>
-  </si>
-  <si>
-    <t>Avaliação:</t>
-  </si>
-  <si>
-    <t>Método:</t>
+    <t>Critério:</t>
   </si>
   <si>
     <t>A avaliação será constituída por aulas expositivas, aulas de exercícios e práticas laboratoriais. Serão aplicadas pelo menos duas avaliações.</t>
   </si>
   <si>
-    <t>Critério:</t>
+    <t>Norma de recuperação:</t>
   </si>
   <si>
     <t>A nota final será a média das avaliações escritas e práticas</t>
   </si>
   <si>
-    <t>Norma de recuperação:</t>
+    <t>Bibliografia:</t>
   </si>
   <si>
     <t>A recuperação será uma prova escrita (RE) que comporá com a nota final (NF) a média final (MF), sendo MF = (NF + RE)/2.</t>
-  </si>
-  <si>
-    <t>Bibliografia:</t>
-  </si>
-  <si>
-    <t>1. NUSSBAUM, G. C. Rebolos e abrasivos. Tecnologia básica. São Paulo: Ícone Editora, 1988. 2. KLOCKE, F. Manufacturing processes 2. Grinding, honing, lapping. Berlim: Springer Verlag, 2009.3. MALKIN, S.; GUO, C. Grinding technology: theory and application of machining with abrasives. New York: Industrial Press Inc., 2008.4. JACKSON, M. J.; DAVIM, J. P. Machining with abrasives. New York: Springer Science, 2011.5. FERRARESI, D. Usinagem dos metais. São Paulo: Editora Edgard Blucher, 1970.6. STEMMER, C. E. Ferramentas de corte II: brocas, alargadores, ferramentas de rocar, fresas, brochas, rebolos e abrasivos. Florianópolis: Editora da UFSC, 1995.7. KINGERY, W. D. Ceramic fabrication process. New York: John Wiley, 1958.8. GARDZIELLA, A.; PILATO, L.A.; KNOP, A. Phenolic resins: chemistry, applications, standardization, safety and ecology. Berlim: Springer Verlag, 2000.9. MARINESCU, Ioan D. Tribology of abrasive machining processes. 2ª Ed. New York: Willian Andrew, 2004.</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -490,7 +478,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -615,56 +603,62 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" ht="60" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="B13" s="2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="B14" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="60" customHeight="1">
+      <c r="A14" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="60" customHeight="1">
+    </row>
+    <row r="15" spans="1:3" ht="120" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="120" customHeight="1">
+      <c r="A16" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="60" customHeight="1">
-      <c r="A16" s="1" t="s">
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="120" customHeight="1">
-      <c r="A17" s="1" t="s">
+    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="A18" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B18" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C18" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="120" customHeight="1">
-      <c r="A18" s="1" t="s">
+    <row r="19" spans="1:3" ht="60" customHeight="1">
+      <c r="A19" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="1" t="s">
+      <c r="B19" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>29</v>
       </c>
     </row>
@@ -679,7 +673,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="60" customHeight="1">
+    <row r="21" spans="1:3" ht="120" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>32</v>
       </c>
@@ -690,39 +684,17 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="60" customHeight="1">
+    <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B22" s="2" t="s">
+    </row>
+    <row r="23" spans="1:3" ht="30" customHeight="1">
+      <c r="B23" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C23" s="3" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="120" customHeight="1">
-      <c r="A23" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="30" customHeight="1">
-      <c r="B25" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/assets/disciplinas/LOM3098.xlsx
+++ b/assets/disciplinas/LOM3098.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="40">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,24 +70,36 @@
     <t>Objetivos:</t>
   </si>
   <si>
+    <t>Propiciar conhecimentos teóricos e práticos de materiais e ferramentas abrasivas, incluindo as matérias primas, os processos de fabricação, qualificação, teste e aplicação de ferramentas abrasivas; e os mecanismos de abrasão atuantes durante os processos de usinagem. Aprimorar a formação do Engenheiro de Materiais numa área estratégica de Ciência e Engenharia de Materiais presente em diversos segmentos da indústria de transformação do país</t>
+  </si>
+  <si>
+    <t>Objectives:</t>
+  </si>
+  <si>
+    <t>Docentes responsáveis:</t>
+  </si>
+  <si>
     <t>519033 - Carlos Yujiro Shigue</t>
   </si>
   <si>
-    <t>Objectives:</t>
-  </si>
-  <si>
-    <t>Docentes responsáveis:</t>
+    <t>5817692 - Katia Cristiane Gandolpho Candioto</t>
   </si>
   <si>
     <t>Programa resumido:</t>
   </si>
   <si>
+    <t>Introdução aos materiais e ferramentas abrasivas. Matérias primas utilizadas na fabricação de ferramentas abrasivas. Processos de fabricação de ferramentas abrasivas. Caracterização, teste e inspeção de ferramentas abrasivas. Mecânica da usinagem com ferramentas abrasivas. Avaliação de desempenho. Prática laboratorial de fabricação, caracterização e teste de compósitos abrasivos.</t>
+  </si>
+  <si>
     <t>Short syllabus:</t>
   </si>
   <si>
     <t>Programa:</t>
   </si>
   <si>
+    <t>Conteúdo teórico: 1. Introdução aos materiais e ferramentas abrasivas: histórico, materiais abrasivos naturais e sintéticos e características principais dos materiais abrasivos. Dados econômicos das ferramentas abrasivas.2. Matérias primas utilizadas na fabricação de ferramentas abrasivas: cerâmicas, borrachas, metais e polímeros. Processos de obtenção das matérias primas.3. Processos de fabricação de ferramentas abrasivas: discos, rebolos, pontas montadas e lixas.4. Caracterização, teste e inspeção de ferramentas abrasivas: ensaios destrutivos e não destrutivos. Normas e códigos de segurança. 5. Mecânica da usinagem com ferramentas abrasivas. Operações com abrasivos: corte, retificação, desbaste, acabamento, lapidação e afiação.6. Avaliação de desempenho: aspectos térmicos, refrigeração, lubrificação, rugosidade superficial, interação metal-ferramenta e defeitos em ferramentas abrasivas.Conteúdo prático: 1. Prática laboratorial de fabricação, caracterização e teste de compósitos abrasivos.2. Visita a fabricantes de abrasivos. 3. Visita a usuários de ferramentas abrasivas.</t>
+  </si>
+  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -97,25 +109,25 @@
     <t>Método:</t>
   </si>
   <si>
-    <t>5817692 - Katia Cristiane Gandolpho Candioto</t>
+    <t>A avaliação será constituída por aulas expositivas, aulas de exercícios e práticas laboratoriais. Serão aplicadas pelo menos duas avaliações.</t>
   </si>
   <si>
     <t>Critério:</t>
   </si>
   <si>
-    <t>A avaliação será constituída por aulas expositivas, aulas de exercícios e práticas laboratoriais. Serão aplicadas pelo menos duas avaliações.</t>
+    <t>A nota final será a média das avaliações escritas e práticas</t>
   </si>
   <si>
     <t>Norma de recuperação:</t>
   </si>
   <si>
-    <t>A nota final será a média das avaliações escritas e práticas</t>
+    <t>A recuperação será uma prova escrita (RE) que comporá com a nota final (NF) a média final (MF), sendo MF = (NF + RE)/2.</t>
   </si>
   <si>
     <t>Bibliografia:</t>
   </si>
   <si>
-    <t>A recuperação será uma prova escrita (RE) que comporá com a nota final (NF) a média final (MF), sendo MF = (NF + RE)/2.</t>
+    <t>1. NUSSBAUM, G. C. Rebolos e abrasivos. Tecnologia básica. São Paulo: Ícone Editora, 1988. 2. KLOCKE, F. Manufacturing processes 2. Grinding, honing, lapping. Berlim: Springer Verlag, 2009.3. MALKIN, S.; GUO, C. Grinding technology: theory and application of machining with abrasives. New York: Industrial Press Inc., 2008.4. JACKSON, M. J.; DAVIM, J. P. Machining with abrasives. New York: Springer Science, 2011.5. FERRARESI, D. Usinagem dos metais. São Paulo: Editora Edgard Blucher, 1970.6. STEMMER, C. E. Ferramentas de corte II: brocas, alargadores, ferramentas de rocar, fresas, brochas, rebolos e abrasivos. Florianópolis: Editora da UFSC, 1995.7. KINGERY, W. D. Ceramic fabrication process. New York: John Wiley, 1958.8. GARDZIELLA, A.; PILATO, L.A.; KNOP, A. Phenolic resins: chemistry, applications, standardization, safety and ecology. Berlim: Springer Verlag, 2000.9. MARINESCU, Ioan D. Tribology of abrasive machining processes. 2ª Ed. New York: Willian Andrew, 2004.</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -478,13 +490,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="30.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="60.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="60.7109375" style="3" customWidth="1"/>
   </cols>
@@ -603,62 +615,56 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="60" customHeight="1">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:3">
+      <c r="B13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="C13" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="60" customHeight="1">
-      <c r="A14" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="120" customHeight="1">
+      <c r="C14" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="60" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="120" customHeight="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="60" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="120" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="60" customHeight="1">
+        <v>26</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="120" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="60" customHeight="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" s="3" t="s">
         <v>29</v>
       </c>
     </row>
@@ -673,7 +679,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="120" customHeight="1">
+    <row r="21" spans="1:3" ht="60" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>32</v>
       </c>
@@ -684,17 +690,39 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" ht="60" customHeight="1">
       <c r="A22" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" ht="30" customHeight="1">
+      <c r="B22" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="120" customHeight="1">
+      <c r="A23" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="B23" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="30" customHeight="1">
+      <c r="B25" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
